--- a/7rGroceryApp/src/main/resources/excelRead/Excelread.xlsx
+++ b/7rGroceryApp/src/main/resources/excelRead/Excelread.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\7rGroceryApp\src\main\resources\excelRead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\7rGroceryApp\7rGroceryApp\src\main\resources\excelRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B5DE30-7D52-429A-A10F-6391B3B2E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9622352-A16C-4791-8226-E3375F7F73F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="48" windowWidth="17304" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">value </t>
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Password : vih@@n</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>rgba(52, 58, 64, 1)</t>
+  </si>
+  <si>
+    <t>expectedResult(BGC of signIn)</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>signInText</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>expeceted DropDownvalue</t>
+  </si>
+  <si>
+    <t>rgba(220, 53, 69, 1)</t>
+  </si>
+  <si>
+    <t>expectedBGC of saveButton</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>rgba(23, 162, 184, 1)</t>
+  </si>
+  <si>
+    <t>expectedBGC of sendButton</t>
   </si>
 </sst>
 </file>
@@ -348,13 +393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -364,6 +413,72 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/7rGroceryApp/src/main/resources/excelRead/Excelread.xlsx
+++ b/7rGroceryApp/src/main/resources/excelRead/Excelread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\7rGroceryApp\7rGroceryApp\src\main\resources\excelRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9622352-A16C-4791-8226-E3375F7F73F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C35EB3-033E-42E4-BA51-88017E33E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="48" windowWidth="17304" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">value </t>
   </si>
@@ -48,34 +48,28 @@
     <t>expectedResult(BGC of signIn)</t>
   </si>
   <si>
+    <t>text of signIn</t>
+  </si>
+  <si>
     <t>Sign In</t>
   </si>
   <si>
-    <t>signInText</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>expeceted DropDownvalue</t>
+    <t>Expecetd BGC of send button</t>
+  </si>
+  <si>
+    <t>rgba(23, 162, 184, 1)</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
   </si>
   <si>
     <t>rgba(220, 53, 69, 1)</t>
   </si>
   <si>
-    <t>expectedBGC of saveButton</t>
-  </si>
-  <si>
-    <t>passWord</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>rgba(23, 162, 184, 1)</t>
-  </si>
-  <si>
-    <t>expectedBGC of sendButton</t>
+    <t>Expecetd BGC of save button</t>
   </si>
 </sst>
 </file>
@@ -393,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +409,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -423,7 +417,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -449,34 +443,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
